--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3338717.382420403</v>
+        <v>3336466.564034509</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>133.5262229738439</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.99240337009294</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>74.53436060286474</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>37.94448079992561</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>5.98338819131895</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>86.11456485616236</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>132.997194893274</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191318943</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>289.2221598733559</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686237</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.461970681989442</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>74.75769145492329</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>74.7576914549239</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>113.5103646250807</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,7 +1819,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>27.69690030288054</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>7.601081015447153</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,10 +2059,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>121.5845169204567</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>18.2687961020394</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>111.9187566128682</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>181.4487096095771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>39.34540819183082</v>
       </c>
     </row>
     <row r="26">
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>14.20188851094976</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2770,10 +2770,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>235.9955072668614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3007,16 +3007,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>33.92999900429851</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,7 +3187,7 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>51.19843204834092</v>
+        <v>71.80319228443796</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100147</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,7 +3424,7 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
-        <v>1.116889811609511</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121071</v>
+        <v>60.5358196412107</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3490,7 +3490,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.1883203232582</v>
+        <v>121.462076805657</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>31.66736386672442</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>117.0247149940946</v>
@@ -3676,10 +3676,10 @@
         <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121069</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S40" t="n">
-        <v>161.3726923026053</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>191.1526162473326</v>
@@ -3724,7 +3724,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X40" t="n">
-        <v>197.3133223602005</v>
+        <v>172.640591727676</v>
       </c>
       <c r="Y40" t="n">
         <v>190.1883203232582</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,19 +3898,19 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>19.54013967606339</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>21.72165004770717</v>
       </c>
       <c r="H43" t="n">
         <v>116.3586818854841</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531007</v>
+        <v>149.1500137534679</v>
       </c>
       <c r="C46" t="n">
         <v>138.8504880697912</v>
@@ -4141,19 +4141,19 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100147</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S46" t="n">
-        <v>86.4862694539798</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U46" t="n">
         <v>257.8155051767762</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>933.9764825870271</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>516.012674485214</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>188.8179545212168</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>652.8417512742476</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>424.8522003762303</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.083928634017</v>
+        <v>979.5885935818919</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936052</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>80.85571308685473</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>80.85571308685473</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>73.91021233765126</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>59.98680827624217</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205144</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.28885893503</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.82310067395</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X7" t="n">
-        <v>593.7883833041373</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.083928634017</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936052</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685473</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>770.9958865030537</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>764.0503857538503</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>346.0865776520371</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.28885893503</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.82310067395</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,40 +4890,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,19 +5042,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.0738540998327</v>
+        <v>171.0738540998321</v>
       </c>
       <c r="C13" t="n">
-        <v>171.0738540998327</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>171.0738540998327</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>171.0738540998327</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5203,46 +5203,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783407</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413802</v>
+        <v>619.8559841413795</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433628</v>
+        <v>391.8664332433622</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998327</v>
+        <v>171.0738540998321</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N14" t="n">
-        <v>3051.398683947134</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O14" t="n">
-        <v>3931.363334276589</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>432.2000540015821</v>
+        <v>210.2179684131224</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>210.2179684131224</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>210.2179684131224</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>210.2179684131224</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>210.2179684131224</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1425.083842285977</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1170.39935408009</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W16" t="n">
-        <v>880.9821840431296</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>652.9926331451122</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>432.2000540015821</v>
+        <v>391.8664332433621</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M17" t="n">
-        <v>1770.231306037952</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>2749.983578264599</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3629.948228594053</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4343.303316041</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5595,25 +5595,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1948.66560649314</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1726.898991062666</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1183.111635982423</v>
+        <v>1041.144999030231</v>
       </c>
       <c r="W19" t="n">
-        <v>893.6944659454625</v>
+        <v>1041.144999030231</v>
       </c>
       <c r="X19" t="n">
-        <v>665.7049150474452</v>
+        <v>813.1554481322135</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.9123359039149</v>
+        <v>592.3628689886833</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>848.0509105096037</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>1832.617028429937</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C22" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D22" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,34 +5926,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783403</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413797</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>619.8559841413796</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,31 +5987,31 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.832524924162</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.866738172571</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>1941.005908766397</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>580.1131475839754</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6166,10 +6166,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
         <v>1674.827124689058</v>
@@ -6178,19 +6178,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783403</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>580.1131475839754</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,22 +6227,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
@@ -6303,10 +6303,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,7 +6315,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>109.9063763786467</v>
       </c>
       <c r="D28" t="n">
         <v>95.56103444839442</v>
@@ -6388,46 +6388,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427193</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867998</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N29" t="n">
-        <v>3316.966490094645</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6543,10 +6543,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>658.619281250059</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6655,16 +6655,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783403</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413797</v>
+        <v>874.5404723472668</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433624</v>
+        <v>840.2677460802987</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998323</v>
+        <v>840.2677460802987</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6707,19 +6707,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O32" t="n">
-        <v>3517.878731871642</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4231.233819318588</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4689.712021827576</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6783,22 +6783,22 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6835,19 +6835,19 @@
         <v>472.4728289383117</v>
       </c>
       <c r="C34" t="n">
-        <v>420.7572410106947</v>
+        <v>399.9443518833239</v>
       </c>
       <c r="D34" t="n">
-        <v>420.7572410106947</v>
+        <v>399.9443518833239</v>
       </c>
       <c r="E34" t="n">
-        <v>420.7572410106947</v>
+        <v>399.9443518833239</v>
       </c>
       <c r="F34" t="n">
-        <v>420.7572410106947</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="G34" t="n">
-        <v>281.7375690610062</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="H34" t="n">
         <v>164.2035469544565</v>
@@ -6856,13 +6856,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K34" t="n">
         <v>400.8955892413028</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883471</v>
       </c>
       <c r="M34" t="n">
         <v>1117.837172686444</v>
@@ -6874,7 +6874,7 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P34" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q34" t="n">
         <v>2181.242423693089</v>
@@ -6883,7 +6883,7 @@
         <v>2120.09513112621</v>
       </c>
       <c r="S34" t="n">
-        <v>1957.092411628629</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T34" t="n">
         <v>1764.008960873747</v>
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>867.5397632725214</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622689</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6968,13 +6968,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320248</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7044,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,7 +7053,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>472.4728289383114</v>
+        <v>541.8932769358895</v>
       </c>
       <c r="C37" t="n">
-        <v>472.4728289383114</v>
+        <v>401.6402586835752</v>
       </c>
       <c r="D37" t="n">
-        <v>472.4728289383114</v>
+        <v>401.6402586835752</v>
       </c>
       <c r="E37" t="n">
-        <v>353.2429000315109</v>
+        <v>282.4103297767746</v>
       </c>
       <c r="F37" t="n">
-        <v>352.1147285046326</v>
+        <v>164.2035469544568</v>
       </c>
       <c r="G37" t="n">
-        <v>213.0950565549441</v>
+        <v>164.2035469544568</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544568</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K37" t="n">
-        <v>400.8955892413027</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883471</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N37" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O37" t="n">
         <v>1814.799887709819</v>
@@ -7114,31 +7114,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
-        <v>2120.09513112621</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S37" t="n">
-        <v>1957.092411628629</v>
+        <v>1957.09241162863</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U37" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1277.587935144689</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W37" t="n">
-        <v>1016.853929783321</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X37" t="n">
-        <v>817.5475435608961</v>
+        <v>817.5475435608972</v>
       </c>
       <c r="Y37" t="n">
-        <v>625.4381290929585</v>
+        <v>694.8585770905366</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,22 +7172,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>1941.005908766399</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G39" t="n">
         <v>205.070220408989</v>
@@ -7251,52 +7251,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>625.4381290929589</v>
+        <v>660.3974985697556</v>
       </c>
       <c r="C40" t="n">
-        <v>593.4508928639444</v>
+        <v>660.3974985697556</v>
       </c>
       <c r="D40" t="n">
-        <v>472.0174181272012</v>
+        <v>538.9640238330124</v>
       </c>
       <c r="E40" t="n">
-        <v>352.7874892204007</v>
+        <v>538.9640238330124</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5807063980829</v>
+        <v>420.7572410106947</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>281.7375690610062</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K40" t="n">
         <v>400.8955892413028</v>
@@ -7357,25 +7357,25 @@
         <v>2120.09513112621</v>
       </c>
       <c r="S40" t="n">
-        <v>1957.092411628629</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.008960873747</v>
+        <v>1927.011680371328</v>
       </c>
       <c r="U40" t="n">
-        <v>1503.589258674984</v>
+        <v>1666.591978172564</v>
       </c>
       <c r="V40" t="n">
-        <v>1277.587935144689</v>
+        <v>1440.59065464227</v>
       </c>
       <c r="W40" t="n">
-        <v>1016.853929783321</v>
+        <v>1179.856649280902</v>
       </c>
       <c r="X40" t="n">
-        <v>817.5475435608964</v>
+        <v>1005.47221319234</v>
       </c>
       <c r="Y40" t="n">
-        <v>625.4381290929589</v>
+        <v>813.3627987244028</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364129</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2730.49472550168</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3610.459375831135</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7488,22 +7488,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.4728289383115</v>
+        <v>472.4728289383117</v>
       </c>
       <c r="C43" t="n">
-        <v>452.735314114005</v>
+        <v>472.4728289383117</v>
       </c>
       <c r="D43" t="n">
-        <v>331.3018393772618</v>
+        <v>472.4728289383117</v>
       </c>
       <c r="E43" t="n">
-        <v>331.3018393772618</v>
+        <v>353.2429000315112</v>
       </c>
       <c r="F43" t="n">
-        <v>213.0950565549441</v>
+        <v>235.0361172091937</v>
       </c>
       <c r="G43" t="n">
         <v>213.0950565549441</v>
@@ -7567,7 +7567,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
         <v>400.8955892413028</v>
@@ -7582,7 +7582,7 @@
         <v>1487.357919090857</v>
       </c>
       <c r="O43" t="n">
-        <v>1814.799887709819</v>
+        <v>1814.799887709818</v>
       </c>
       <c r="P43" t="n">
         <v>2075.519757842026</v>
@@ -7597,7 +7597,7 @@
         <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U43" t="n">
         <v>1503.589258674984</v>
@@ -7609,10 +7609,10 @@
         <v>1016.853929783321</v>
       </c>
       <c r="X43" t="n">
-        <v>817.5475435608962</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y43" t="n">
-        <v>625.4381290929587</v>
+        <v>625.4381290929589</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,22 +7646,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M44" t="n">
-        <v>2215.249704195856</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N44" t="n">
-        <v>2762.028521254639</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
         <v>4195.497197679678</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,28 +7725,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,7 +7755,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7764,7 +7764,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.3464236223206</v>
+        <v>474.7815495440016</v>
       </c>
       <c r="C46" t="n">
-        <v>662.0934053700065</v>
+        <v>334.5285312916872</v>
       </c>
       <c r="D46" t="n">
-        <v>540.6599306332633</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="E46" t="n">
-        <v>421.4300017264628</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="F46" t="n">
-        <v>303.223218904145</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="G46" t="n">
-        <v>164.2035469544565</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H46" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938781</v>
       </c>
       <c r="K46" t="n">
         <v>400.8955892413028</v>
@@ -7825,31 +7825,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R46" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S46" t="n">
-        <v>2093.882555557756</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>2093.882555557756</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1833.462853358993</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1607.461529828698</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W46" t="n">
-        <v>1346.72752446733</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X46" t="n">
-        <v>1147.421138244905</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y46" t="n">
-        <v>955.3117237769677</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>135.6385654278963</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>96.13798426930873</v>
       </c>
       <c r="P14" t="n">
-        <v>146.0713065388583</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>226.7688596193112</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>128.7323010770072</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>232.1124963760985</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>344.7025836476839</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>288.047814956104</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>172.4995987156004</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>198.7154374299955</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O29" t="n">
-        <v>258.6211785616945</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>241.933812917827</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>29.61882225792191</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>251.7982062376314</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476847</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,16 +10829,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>17.45080131651162</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>192.185308577136</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>341.5962138876751</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>219.3344627260169</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370454</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>70.66335656800734</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>52.51544363394758</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>258.5149379027324</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>182.1679443159947</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>130.5531264033713</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>130.346676916173</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>106.6658967392266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>179.239245160264</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>134.4135845072626</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>16.14213605696666</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>191.7796563847386</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>87.65205602145026</v>
+        <v>67.04729578535324</v>
       </c>
       <c r="D34" t="n">
         <v>120.2191399893757</v>
@@ -25084,10 +25084,10 @@
         <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>120.2191399893757</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>115.9078251824851</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>68.72624351760118</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>107.1831242030668</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100147</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>24.67273063252449</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>119.3103483937278</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>115.9078251824844</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2.285633399632691</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121071</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>74.88642284862546</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1526162473326</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417307</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>726465.5226676824</v>
+        <v>726465.5226676823</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726465.5226676823</v>
+        <v>726465.5226676824</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>694893.1270522209</v>
+      </c>
+      <c r="F2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="G2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="H2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="I2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="J2" t="n">
         <v>694893.1270522207</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>694893.1270522207</v>
-      </c>
-      <c r="G2" t="n">
-        <v>694893.1270522203</v>
-      </c>
-      <c r="H2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="I2" t="n">
-        <v>694893.1270522205</v>
-      </c>
-      <c r="J2" t="n">
-        <v>694893.1270522205</v>
-      </c>
-      <c r="K2" t="n">
-        <v>694893.1270522205</v>
       </c>
       <c r="L2" t="n">
         <v>709109.9442781718</v>
       </c>
       <c r="M2" t="n">
-        <v>709109.9442781723</v>
+        <v>709109.9442781722</v>
       </c>
       <c r="N2" t="n">
-        <v>709109.9442781723</v>
+        <v>709109.9442781721</v>
       </c>
       <c r="O2" t="n">
-        <v>709109.9442781725</v>
+        <v>709109.9442781715</v>
       </c>
       <c r="P2" t="n">
         <v>709109.9442781718</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306932</v>
+        <v>22717.0664230693</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918992</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>27492.30103190631</v>
       </c>
       <c r="M4" t="n">
-        <v>27492.30103190629</v>
+        <v>27492.30103190628</v>
       </c>
       <c r="N4" t="n">
-        <v>27492.30103190629</v>
+        <v>27492.30103190628</v>
       </c>
       <c r="O4" t="n">
-        <v>27492.30103190629</v>
+        <v>27492.30103190631</v>
       </c>
       <c r="P4" t="n">
-        <v>27492.30103190631</v>
+        <v>27492.3010319063</v>
       </c>
     </row>
     <row r="5">
@@ -26479,22 +26479,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>98770.76957511491</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137764.0955038339</v>
+        <v>-137764.0955038338</v>
       </c>
       <c r="C6" t="n">
         <v>452203.7837107106</v>
       </c>
       <c r="D6" t="n">
-        <v>452203.7837107106</v>
+        <v>452203.7837107105</v>
       </c>
       <c r="E6" t="n">
-        <v>-147016.2975140896</v>
+        <v>-147083.4930043152</v>
       </c>
       <c r="F6" t="n">
-        <v>580361.1164793172</v>
+        <v>580293.9209890914</v>
       </c>
       <c r="G6" t="n">
-        <v>580361.116479317</v>
+        <v>580293.9209890913</v>
       </c>
       <c r="H6" t="n">
-        <v>580361.1164793171</v>
+        <v>580293.9209890912</v>
       </c>
       <c r="I6" t="n">
-        <v>580361.116479317</v>
+        <v>580293.9209890912</v>
       </c>
       <c r="J6" t="n">
-        <v>403937.8972867238</v>
+        <v>403870.7017964984</v>
       </c>
       <c r="K6" t="n">
-        <v>580361.116479317</v>
+        <v>580293.9209890914</v>
       </c>
       <c r="L6" t="n">
-        <v>560129.8072480812</v>
+        <v>560103.2312356438</v>
       </c>
       <c r="M6" t="n">
-        <v>453204.5588322063</v>
+        <v>453177.9828197687</v>
       </c>
       <c r="N6" t="n">
-        <v>582846.8736711511</v>
+        <v>582820.2976587137</v>
       </c>
       <c r="O6" t="n">
-        <v>582846.8736711512</v>
+        <v>582820.297658713</v>
       </c>
       <c r="P6" t="n">
-        <v>582846.8736711505</v>
+        <v>582820.2976587131</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O2" t="n">
         <v>28.39633302883665</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,20 +26978,20 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40509327101739</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>168.153135579926</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>211.9886377337263</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>327.328410971082</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>317.9393845730382</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>166.0230784676656</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>92.71246049576317</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809428</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>34.70061289100124</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27910,7 +27910,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.952393967665557e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28813,13 +28813,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.632190443471565e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="38">
@@ -30223,19 +30223,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>-3.979039320256561e-13</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34226,7 +34226,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>643.6915663161154</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>604.1909851575277</v>
       </c>
       <c r="P14" t="n">
-        <v>544.8332927582302</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>682.3589740116433</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>379.5266058807267</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>569.3037829314989</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>883.6236994779107</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>625.2391015115044</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>711.4207145458272</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>751.017272842907</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O29" t="n">
-        <v>766.6741794499135</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>780.8549287480536</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
@@ -37087,10 +37087,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>89.23202080014663</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
@@ -37236,7 +37236,7 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O34" t="n">
         <v>330.7494632514764</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>588.9894927930319</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400166</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L37" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M37" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O37" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q37" t="n">
         <v>106.7905715667303</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265651</v>
@@ -37549,16 +37549,16 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>556.3719171467382</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636241</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>590.9472947965077</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>797.1863282800073</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>727.3874636142359</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K46" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
         <v>373.2532791963767</v>
@@ -38190,7 +38190,7 @@
         <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q46" t="n">
         <v>106.7905715667303</v>
